--- a/Python/acc_p_value_matrix_svm.xlsx
+++ b/Python/acc_p_value_matrix_svm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B4DA4C-1DA3-469E-B3E2-4740D826BA07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65137F70-3083-4D03-9480-6B6CD9BE8F55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,61 +439,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9500809452912673</v>
+        <v>0.95182881345723869</v>
       </c>
       <c r="D2">
-        <v>0.71119680177434563</v>
+        <v>0.4690132084079297</v>
       </c>
       <c r="E2">
-        <v>0.61801796746421012</v>
+        <v>0.4690132084079297</v>
       </c>
       <c r="F2">
-        <v>2.8289922818001599E-2</v>
+        <v>1.623324763755319E-2</v>
       </c>
       <c r="G2">
-        <v>9.8481090506716412E-3</v>
+        <v>7.6270186117952483E-3</v>
       </c>
       <c r="H2">
-        <v>0.21939271247590339</v>
+        <v>0.15317463430991371</v>
       </c>
       <c r="I2">
-        <v>0.34830212033355612</v>
+        <v>0.32960395400177261</v>
       </c>
       <c r="J2">
-        <v>0.90104575318391367</v>
+        <v>0.9046496696411781</v>
       </c>
       <c r="K2">
-        <v>0.41056562371392152</v>
+        <v>0.31099145438730158</v>
       </c>
       <c r="L2">
-        <v>0.18357029951057571</v>
+        <v>0.1035950909853634</v>
       </c>
       <c r="M2">
-        <v>0.28864747778618899</v>
+        <v>0.19301455236610721</v>
       </c>
       <c r="N2">
-        <v>0.12655599018562211</v>
+        <v>7.2605073687137367E-2</v>
       </c>
       <c r="O2">
-        <v>9.0331247575395804E-2</v>
+        <v>5.8725598708667261E-2</v>
       </c>
       <c r="P2">
-        <v>6.7855279569694532E-2</v>
+        <v>4.2805188654401027E-2</v>
       </c>
       <c r="Q2">
-        <v>5.8411772828864707E-2</v>
+        <v>3.2326454903101147E-2</v>
       </c>
       <c r="R2">
-        <v>2.4795589057956129E-2</v>
+        <v>1.561549181022949E-2</v>
       </c>
       <c r="S2">
-        <v>1.8240189099866681E-2</v>
+        <v>9.3897838694391254E-3</v>
       </c>
       <c r="T2">
-        <v>0.14875485594468579</v>
+        <v>8.4521129404446907E-2</v>
       </c>
       <c r="U2">
-        <v>2.536567163582899E-2</v>
+        <v>1.635352154649241E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -501,64 +501,64 @@
         <v>2E-3</v>
       </c>
       <c r="B3">
-        <v>0.9500809452912673</v>
+        <v>0.95182881345723869</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.67698758429181827</v>
+        <v>0.4436339775374526</v>
       </c>
       <c r="E3">
-        <v>0.58876594509898061</v>
+        <v>0.4436339775374526</v>
       </c>
       <c r="F3">
-        <v>2.9807945478139371E-2</v>
+        <v>1.6130594916696991E-2</v>
       </c>
       <c r="G3">
-        <v>1.091300817509718E-2</v>
+        <v>7.7315082972678733E-3</v>
       </c>
       <c r="H3">
-        <v>0.21353427225050919</v>
+        <v>0.14598198375199831</v>
       </c>
       <c r="I3">
-        <v>0.33513871252736688</v>
+        <v>0.31196409115064949</v>
       </c>
       <c r="J3">
-        <v>0.85732382183468436</v>
+        <v>0.86064343541042798</v>
       </c>
       <c r="K3">
-        <v>0.46456644118171941</v>
+        <v>0.35133926595906317</v>
       </c>
       <c r="L3">
-        <v>0.22266680614884471</v>
+        <v>0.12569587362944329</v>
       </c>
       <c r="M3">
-        <v>0.335777174120515</v>
+        <v>0.2244045386880156</v>
       </c>
       <c r="N3">
-        <v>0.15875490369597739</v>
+        <v>8.9865059796825145E-2</v>
       </c>
       <c r="O3">
-        <v>0.1160660869818724</v>
+        <v>7.3339718113579311E-2</v>
       </c>
       <c r="P3">
-        <v>8.94438059466139E-2</v>
+        <v>5.4618717652387128E-2</v>
       </c>
       <c r="Q3">
-        <v>7.803968465567189E-2</v>
+        <v>4.1910802559753768E-2</v>
       </c>
       <c r="R3">
-        <v>3.5397030398724903E-2</v>
+        <v>2.105317672310832E-2</v>
       </c>
       <c r="S3">
-        <v>2.665271856712291E-2</v>
+        <v>1.3038770744956201E-2</v>
       </c>
       <c r="T3">
-        <v>0.18328355758363529</v>
+        <v>0.1034807091775715</v>
       </c>
       <c r="U3">
-        <v>3.6070525869230187E-2</v>
+        <v>2.1926365301233271E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -566,64 +566,64 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>0.71119680177434563</v>
+        <v>0.4690132084079297</v>
       </c>
       <c r="C4">
-        <v>0.67698758429181827</v>
+        <v>0.4436339775374526</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.90558378197044953</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>8.3518621940420007E-2</v>
+        <v>9.9205640841282722E-2</v>
       </c>
       <c r="G4">
-        <v>3.5895084762254073E-2</v>
+        <v>5.722817404095111E-2</v>
       </c>
       <c r="H4">
-        <v>0.41244260295135859</v>
+        <v>0.48456985450578233</v>
       </c>
       <c r="I4">
-        <v>0.5923415575205051</v>
+        <v>0.81181620106376862</v>
       </c>
       <c r="J4">
-        <v>0.81297791560289201</v>
+        <v>0.55876297463131952</v>
       </c>
       <c r="K4">
-        <v>0.25375311264745792</v>
+        <v>9.2133408710680417E-2</v>
       </c>
       <c r="L4">
-        <v>0.10486509329983271</v>
+        <v>2.2169459021495631E-2</v>
       </c>
       <c r="M4">
-        <v>0.17260605137055371</v>
+        <v>4.9974060919920488E-2</v>
       </c>
       <c r="N4">
-        <v>7.0274593429019067E-2</v>
+        <v>1.4460407552595421E-2</v>
       </c>
       <c r="O4">
-        <v>4.9460044591031739E-2</v>
+        <v>1.1399934405371549E-2</v>
       </c>
       <c r="P4">
-        <v>3.6571117821735888E-2</v>
+        <v>7.6723617187206793E-3</v>
       </c>
       <c r="Q4">
-        <v>3.124911824440452E-2</v>
+        <v>5.5012677264768524E-3</v>
       </c>
       <c r="R4">
-        <v>1.2932287502920581E-2</v>
+        <v>2.3642504346741621E-3</v>
       </c>
       <c r="S4">
-        <v>9.452553789162231E-3</v>
+        <v>1.3059302068646251E-3</v>
       </c>
       <c r="T4">
-        <v>8.3964186553693324E-2</v>
+        <v>1.7594707149937491E-2</v>
       </c>
       <c r="U4">
-        <v>1.3254445366768499E-2</v>
+        <v>2.5266497845727672E-3</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -631,64 +631,64 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.61801796746421012</v>
+        <v>0.4690132084079297</v>
       </c>
       <c r="C5">
-        <v>0.58876594509898061</v>
+        <v>0.4436339775374526</v>
       </c>
       <c r="D5">
-        <v>0.90558378197044953</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1036205073623486</v>
+        <v>9.9205640841282722E-2</v>
       </c>
       <c r="G5">
-        <v>4.565070803461322E-2</v>
+        <v>5.722817404095111E-2</v>
       </c>
       <c r="H5">
-        <v>0.47822771542221348</v>
+        <v>0.48456985450578233</v>
       </c>
       <c r="I5">
-        <v>0.67413029680977821</v>
+        <v>0.81181620106376862</v>
       </c>
       <c r="J5">
-        <v>0.72020319630597485</v>
+        <v>0.55876297463131952</v>
       </c>
       <c r="K5">
-        <v>0.202949093426219</v>
+        <v>9.2133408710680417E-2</v>
       </c>
       <c r="L5">
-        <v>7.8774300513787782E-2</v>
+        <v>2.2169459021495631E-2</v>
       </c>
       <c r="M5">
-        <v>0.13469155005961439</v>
+        <v>4.9974060919920488E-2</v>
       </c>
       <c r="N5">
-        <v>5.1342029101822118E-2</v>
+        <v>1.4460407552595421E-2</v>
       </c>
       <c r="O5">
-        <v>3.5531451920422757E-2</v>
+        <v>1.1399934405371549E-2</v>
       </c>
       <c r="P5">
-        <v>2.5765114864545011E-2</v>
+        <v>7.6723617187206793E-3</v>
       </c>
       <c r="Q5">
-        <v>2.179631324658866E-2</v>
+        <v>5.5012677264768524E-3</v>
       </c>
       <c r="R5">
-        <v>8.6263517573013093E-3</v>
+        <v>2.3642504346741621E-3</v>
       </c>
       <c r="S5">
-        <v>6.211177648318641E-3</v>
+        <v>1.3059302068646251E-3</v>
       </c>
       <c r="T5">
-        <v>6.232842529505829E-2</v>
+        <v>1.7594707149937491E-2</v>
       </c>
       <c r="U5">
-        <v>8.8682922237118423E-3</v>
+        <v>2.5266497845727672E-3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -696,64 +696,64 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>2.8289922818001599E-2</v>
+        <v>1.623324763755319E-2</v>
       </c>
       <c r="C6">
-        <v>2.9807945478139371E-2</v>
+        <v>1.6130594916696991E-2</v>
       </c>
       <c r="D6">
-        <v>8.3518621940420007E-2</v>
+        <v>9.9205640841282722E-2</v>
       </c>
       <c r="E6">
-        <v>0.1036205073623486</v>
+        <v>9.9205640841282722E-2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.71209671602197766</v>
+        <v>0.81082802748970573</v>
       </c>
       <c r="H6">
-        <v>0.37079744570547712</v>
+        <v>0.35046043560203988</v>
       </c>
       <c r="I6">
-        <v>0.22557864735231151</v>
+        <v>0.1531746343099179</v>
       </c>
       <c r="J6">
-        <v>4.7636990310062903E-2</v>
+        <v>2.6815437545782549E-2</v>
       </c>
       <c r="K6">
-        <v>3.5530029580288082E-3</v>
+        <v>1.02061741438963E-3</v>
       </c>
       <c r="L6">
-        <v>6.8915194942950088E-4</v>
+        <v>1.003473810578433E-4</v>
       </c>
       <c r="M6">
-        <v>1.847015587301727E-3</v>
+        <v>3.9530123522038351E-4</v>
       </c>
       <c r="N6">
-        <v>3.3132230575260178E-4</v>
+        <v>5.520099780290554E-5</v>
       </c>
       <c r="O6">
-        <v>2.0076443398723569E-4</v>
+        <v>4.215944489942315E-5</v>
       </c>
       <c r="P6">
-        <v>1.186779945453961E-4</v>
+        <v>2.2367319283646791E-5</v>
       </c>
       <c r="Q6">
-        <v>9.0520035573864933E-5</v>
+        <v>1.4027971236048751E-5</v>
       </c>
       <c r="R6">
-        <v>2.4126111726886029E-5</v>
+        <v>4.4910041807581574E-6</v>
       </c>
       <c r="S6">
-        <v>1.525810582646895E-5</v>
+        <v>1.958963217727379E-6</v>
       </c>
       <c r="T6">
-        <v>4.9190700046895905E-4</v>
+        <v>7.687601745576459E-5</v>
       </c>
       <c r="U6">
-        <v>2.5790677422596061E-5</v>
+        <v>5.1711251672476621E-6</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -761,64 +761,64 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>9.8481090506716412E-3</v>
+        <v>7.6270186117952483E-3</v>
       </c>
       <c r="C7">
-        <v>1.091300817509718E-2</v>
+        <v>7.7315082972678733E-3</v>
       </c>
       <c r="D7">
-        <v>3.5895084762254073E-2</v>
+        <v>5.722817404095111E-2</v>
       </c>
       <c r="E7">
-        <v>4.565070803461322E-2</v>
+        <v>5.722817404095111E-2</v>
       </c>
       <c r="F7">
-        <v>0.71209671602197766</v>
+        <v>0.81082802748970573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2078218761701118</v>
+        <v>0.23873931571507781</v>
       </c>
       <c r="I7">
-        <v>0.1133079364837549</v>
+        <v>9.2497328573236823E-2</v>
       </c>
       <c r="J7">
-        <v>1.8729042819260942E-2</v>
+        <v>1.357035590835636E-2</v>
       </c>
       <c r="K7">
-        <v>9.9589869566496752E-4</v>
+        <v>3.9585436593716963E-4</v>
       </c>
       <c r="L7">
-        <v>1.635805384796354E-4</v>
+        <v>3.2753093407105262E-5</v>
       </c>
       <c r="M7">
-        <v>4.9284498698107845E-4</v>
+        <v>1.4454893350379381E-4</v>
       </c>
       <c r="N7">
-        <v>7.2894605038070559E-5</v>
+        <v>1.7510242956057569E-5</v>
       </c>
       <c r="O7">
-        <v>4.3256281769382397E-5</v>
+        <v>1.3379083937038189E-5</v>
       </c>
       <c r="P7">
-        <v>2.4302691585251349E-5</v>
+        <v>6.7551350722156852E-6</v>
       </c>
       <c r="Q7">
-        <v>1.8064885439932239E-5</v>
+        <v>4.1334831180138696E-6</v>
       </c>
       <c r="R7">
-        <v>4.4252534498675547E-6</v>
+        <v>1.2552925186101149E-6</v>
       </c>
       <c r="S7">
-        <v>2.72199887909162E-6</v>
+        <v>5.226199885338717E-7</v>
       </c>
       <c r="T7">
-        <v>1.1463210683894819E-4</v>
+        <v>2.509184316665607E-5</v>
       </c>
       <c r="U7">
-        <v>4.787450446913793E-6</v>
+        <v>1.4715205800436079E-6</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -826,64 +826,64 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B8">
-        <v>0.21939271247590339</v>
+        <v>0.15317463430991371</v>
       </c>
       <c r="C8">
-        <v>0.21353427225050919</v>
+        <v>0.14598198375199831</v>
       </c>
       <c r="D8">
-        <v>0.41244260295135859</v>
+        <v>0.48456985450578233</v>
       </c>
       <c r="E8">
-        <v>0.47822771542221348</v>
+        <v>0.48456985450578233</v>
       </c>
       <c r="F8">
-        <v>0.37079744570547712</v>
+        <v>0.35046043560203988</v>
       </c>
       <c r="G8">
-        <v>0.2078218761701118</v>
+        <v>0.23873931571507781</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.76671584561343775</v>
+        <v>0.63790623949361769</v>
       </c>
       <c r="J8">
-        <v>0.28908838267851628</v>
+        <v>0.20406730268141021</v>
       </c>
       <c r="K8">
-        <v>4.8856336082679037E-2</v>
+        <v>1.8920322204577539E-2</v>
       </c>
       <c r="L8">
-        <v>1.449353429557812E-2</v>
+        <v>3.232378661877415E-3</v>
       </c>
       <c r="M8">
-        <v>2.928366942154205E-2</v>
+        <v>8.9660843107926061E-3</v>
       </c>
       <c r="N8">
-        <v>8.4257328369436481E-3</v>
+        <v>1.96666388804945E-3</v>
       </c>
       <c r="O8">
-        <v>5.5001763717756743E-3</v>
+        <v>1.521589398936879E-3</v>
       </c>
       <c r="P8">
-        <v>3.6963085248551161E-3</v>
+        <v>9.3847022759084911E-4</v>
       </c>
       <c r="Q8">
-        <v>3.0092128902824739E-3</v>
+        <v>6.3855934812120485E-4</v>
       </c>
       <c r="R8">
-        <v>1.019626355979391E-3</v>
+        <v>2.4425567586729981E-4</v>
       </c>
       <c r="S8">
-        <v>6.9803207213029307E-4</v>
+        <v>1.234234968145232E-4</v>
       </c>
       <c r="T8">
-        <v>1.097333764947989E-2</v>
+        <v>2.513412996211785E-3</v>
       </c>
       <c r="U8">
-        <v>1.061628940392165E-3</v>
+        <v>2.6763544586691729E-4</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -891,64 +891,64 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B9">
-        <v>0.34830212033355612</v>
+        <v>0.32960395400177261</v>
       </c>
       <c r="C9">
-        <v>0.33513871252736688</v>
+        <v>0.31196409115064949</v>
       </c>
       <c r="D9">
-        <v>0.5923415575205051</v>
+        <v>0.81181620106376862</v>
       </c>
       <c r="E9">
-        <v>0.67413029680977821</v>
+        <v>0.81181620106376862</v>
       </c>
       <c r="F9">
-        <v>0.22557864735231151</v>
+        <v>0.1531746343099179</v>
       </c>
       <c r="G9">
-        <v>0.1133079364837549</v>
+        <v>9.2497328573236823E-2</v>
       </c>
       <c r="H9">
-        <v>0.76671584561343775</v>
+        <v>0.63790623949361769</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.43634726140775809</v>
+        <v>0.40872624225473791</v>
       </c>
       <c r="K9">
-        <v>8.8918600346892973E-2</v>
+        <v>5.3258908740623889E-2</v>
       </c>
       <c r="L9">
-        <v>2.8847100057198819E-2</v>
+        <v>1.0990330714469001E-2</v>
       </c>
       <c r="M9">
-        <v>5.5098700615578422E-2</v>
+        <v>2.7193231709363171E-2</v>
       </c>
       <c r="N9">
-        <v>1.7399007885061799E-2</v>
+        <v>6.9302110696953158E-3</v>
       </c>
       <c r="O9">
-        <v>1.1549034737121249E-2</v>
+        <v>5.4062420552378069E-3</v>
       </c>
       <c r="P9">
-        <v>7.9462110493272418E-3</v>
+        <v>3.491233402360237E-3</v>
       </c>
       <c r="Q9">
-        <v>6.5452329554087363E-3</v>
+        <v>2.4388312930080499E-3</v>
       </c>
       <c r="R9">
-        <v>2.3175969347782538E-3</v>
+        <v>9.8736718603113023E-4</v>
       </c>
       <c r="S9">
-        <v>1.6087128979890581E-3</v>
+        <v>5.2091529866033501E-4</v>
       </c>
       <c r="T9">
-        <v>2.213286621764338E-2</v>
+        <v>8.6253361956440417E-3</v>
       </c>
       <c r="U9">
-        <v>2.403408895791334E-3</v>
+        <v>1.0677520633013519E-3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -956,64 +956,64 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B10">
-        <v>0.90104575318391367</v>
+        <v>0.9046496696411781</v>
       </c>
       <c r="C10">
-        <v>0.85732382183468436</v>
+        <v>0.86064343541042798</v>
       </c>
       <c r="D10">
-        <v>0.81297791560289201</v>
+        <v>0.55876297463131952</v>
       </c>
       <c r="E10">
-        <v>0.72020319630597485</v>
+        <v>0.55876297463131952</v>
       </c>
       <c r="F10">
-        <v>4.7636990310062903E-2</v>
+        <v>2.6815437545782549E-2</v>
       </c>
       <c r="G10">
-        <v>1.8729042819260942E-2</v>
+        <v>1.357035590835636E-2</v>
       </c>
       <c r="H10">
-        <v>0.28908838267851628</v>
+        <v>0.20406730268141021</v>
       </c>
       <c r="I10">
-        <v>0.43634726140775809</v>
+        <v>0.40872624225473791</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.3639651957897756</v>
+        <v>0.27242995576856138</v>
       </c>
       <c r="L10">
-        <v>0.16382261659994959</v>
+        <v>9.0465722634540877E-2</v>
       </c>
       <c r="M10">
-        <v>0.25630879027179287</v>
+        <v>0.16856655483482991</v>
       </c>
       <c r="N10">
-        <v>0.1137819065548888</v>
+        <v>6.3571265358142073E-2</v>
       </c>
       <c r="O10">
-        <v>8.1825494792794357E-2</v>
+        <v>5.1520131958462181E-2</v>
       </c>
       <c r="P10">
-        <v>6.196434732218626E-2</v>
+        <v>3.7691415818466432E-2</v>
       </c>
       <c r="Q10">
-        <v>5.3589056028353059E-2</v>
+        <v>2.8571910642638872E-2</v>
       </c>
       <c r="R10">
-        <v>2.3373100249184601E-2</v>
+        <v>1.39610380209039E-2</v>
       </c>
       <c r="S10">
-        <v>1.7377472070356122E-2</v>
+        <v>8.4798185975662344E-3</v>
       </c>
       <c r="T10">
-        <v>0.133247708866987</v>
+        <v>7.3922747029432884E-2</v>
       </c>
       <c r="U10">
-        <v>2.387403260611156E-2</v>
+        <v>1.4600042103764879E-2</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1021,64 +1021,64 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.41056562371392152</v>
+        <v>0.31099145438730158</v>
       </c>
       <c r="C11">
-        <v>0.46456644118171941</v>
+        <v>0.35133926595906317</v>
       </c>
       <c r="D11">
-        <v>0.25375311264745792</v>
+        <v>9.2133408710680417E-2</v>
       </c>
       <c r="E11">
-        <v>0.202949093426219</v>
+        <v>9.2133408710680417E-2</v>
       </c>
       <c r="F11">
-        <v>3.5530029580288082E-3</v>
+        <v>1.02061741438963E-3</v>
       </c>
       <c r="G11">
-        <v>9.9589869566496752E-4</v>
+        <v>3.9585436593716963E-4</v>
       </c>
       <c r="H11">
-        <v>4.8856336082679037E-2</v>
+        <v>1.8920322204577539E-2</v>
       </c>
       <c r="I11">
-        <v>8.8918600346892973E-2</v>
+        <v>5.3258908740623889E-2</v>
       </c>
       <c r="J11">
-        <v>0.3639651957897756</v>
+        <v>0.27242995576856138</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.62122592285521216</v>
+        <v>0.55950974937097064</v>
       </c>
       <c r="M11">
-        <v>0.80756939902032632</v>
+        <v>0.77448283316921029</v>
       </c>
       <c r="N11">
-        <v>0.494564101150052</v>
+        <v>0.45098939175662722</v>
       </c>
       <c r="O11">
-        <v>0.39113710923514527</v>
+        <v>0.39011637112548581</v>
       </c>
       <c r="P11">
-        <v>0.32519925137694689</v>
+        <v>0.32603854022914103</v>
       </c>
       <c r="Q11">
-        <v>0.29492356991622398</v>
+        <v>0.27314185076717012</v>
       </c>
       <c r="R11">
-        <v>0.16084004281461639</v>
+        <v>0.16926124012448551</v>
       </c>
       <c r="S11">
-        <v>0.12869217956813259</v>
+        <v>0.1214680161437713</v>
       </c>
       <c r="T11">
-        <v>0.54005710923901795</v>
+        <v>0.4890879697391689</v>
       </c>
       <c r="U11">
-        <v>0.16241258450532531</v>
+        <v>0.17208367343407191</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1086,64 +1086,64 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>0.18357029951057571</v>
+        <v>0.1035950909853634</v>
       </c>
       <c r="C12">
-        <v>0.22266680614884471</v>
+        <v>0.12569587362944329</v>
       </c>
       <c r="D12">
-        <v>0.10486509329983271</v>
+        <v>2.2169459021495631E-2</v>
       </c>
       <c r="E12">
-        <v>7.8774300513787782E-2</v>
+        <v>2.2169459021495631E-2</v>
       </c>
       <c r="F12">
-        <v>6.8915194942950088E-4</v>
+        <v>1.003473810578433E-4</v>
       </c>
       <c r="G12">
-        <v>1.635805384796354E-4</v>
+        <v>3.2753093407105262E-5</v>
       </c>
       <c r="H12">
-        <v>1.449353429557812E-2</v>
+        <v>3.232378661877415E-3</v>
       </c>
       <c r="I12">
-        <v>2.8847100057198819E-2</v>
+        <v>1.0990330714469001E-2</v>
       </c>
       <c r="J12">
-        <v>0.16382261659994959</v>
+        <v>9.0465722634540877E-2</v>
       </c>
       <c r="K12">
-        <v>0.62122592285521216</v>
+        <v>0.55950974937097064</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.80725697665060059</v>
+        <v>0.77173388235364426</v>
       </c>
       <c r="N12">
-        <v>0.85188453288286103</v>
+        <v>0.86005620912440672</v>
       </c>
       <c r="O12">
-        <v>0.71255926463925034</v>
+        <v>0.77158241276950112</v>
       </c>
       <c r="P12">
-        <v>0.62187130858851392</v>
+        <v>0.68181744768429997</v>
       </c>
       <c r="Q12">
-        <v>0.57821540168214747</v>
+        <v>0.59866664072662712</v>
       </c>
       <c r="R12">
-        <v>0.35896228351318438</v>
+        <v>0.41610734126267951</v>
       </c>
       <c r="S12">
-        <v>0.29999526262891868</v>
+        <v>0.32257979315458701</v>
       </c>
       <c r="T12">
-        <v>0.90225991205881417</v>
+        <v>0.90699730601210971</v>
       </c>
       <c r="U12">
-        <v>0.36077492369970487</v>
+        <v>0.41926748512793027</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,64 +1151,64 @@
         <v>1.2E-2</v>
       </c>
       <c r="B13">
-        <v>0.28864747778618899</v>
+        <v>0.19301455236610721</v>
       </c>
       <c r="C13">
-        <v>0.335777174120515</v>
+        <v>0.2244045386880156</v>
       </c>
       <c r="D13">
-        <v>0.17260605137055371</v>
+        <v>4.9974060919920488E-2</v>
       </c>
       <c r="E13">
-        <v>0.13469155005961439</v>
+        <v>4.9974060919920488E-2</v>
       </c>
       <c r="F13">
-        <v>1.847015587301727E-3</v>
+        <v>3.9530123522038351E-4</v>
       </c>
       <c r="G13">
-        <v>4.9284498698107845E-4</v>
+        <v>1.4454893350379381E-4</v>
       </c>
       <c r="H13">
-        <v>2.928366942154205E-2</v>
+        <v>8.9660843107926061E-3</v>
       </c>
       <c r="I13">
-        <v>5.5098700615578422E-2</v>
+        <v>2.7193231709363171E-2</v>
       </c>
       <c r="J13">
-        <v>0.25630879027179287</v>
+        <v>0.16856655483482991</v>
       </c>
       <c r="K13">
-        <v>0.80756939902032632</v>
+        <v>0.77448283316921029</v>
       </c>
       <c r="L13">
-        <v>0.80725697665060059</v>
+        <v>0.77173388235364426</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.66775366339706221</v>
+        <v>0.64459633507618852</v>
       </c>
       <c r="O13">
-        <v>0.54508855507039333</v>
+        <v>0.56875982982967455</v>
       </c>
       <c r="P13">
-        <v>0.46603869116841518</v>
+        <v>0.49047144482316007</v>
       </c>
       <c r="Q13">
-        <v>0.4288071206906412</v>
+        <v>0.42183719494854421</v>
       </c>
       <c r="R13">
-        <v>0.25225724840417219</v>
+        <v>0.27889585268687989</v>
       </c>
       <c r="S13">
-        <v>0.20712549491502871</v>
+        <v>0.20921697637434269</v>
       </c>
       <c r="T13">
-        <v>0.71650370421170262</v>
+        <v>0.68820211206651494</v>
       </c>
       <c r="U13">
-        <v>0.25399587085271791</v>
+        <v>0.28203906256404571</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,64 +1216,64 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B14">
-        <v>0.12655599018562211</v>
+        <v>7.2605073687137367E-2</v>
       </c>
       <c r="C14">
-        <v>0.15875490369597739</v>
+        <v>8.9865059796825145E-2</v>
       </c>
       <c r="D14">
-        <v>7.0274593429019067E-2</v>
+        <v>1.4460407552595421E-2</v>
       </c>
       <c r="E14">
-        <v>5.1342029101822118E-2</v>
+        <v>1.4460407552595421E-2</v>
       </c>
       <c r="F14">
-        <v>3.3132230575260178E-4</v>
+        <v>5.520099780290554E-5</v>
       </c>
       <c r="G14">
-        <v>7.2894605038070559E-5</v>
+        <v>1.7510242956057569E-5</v>
       </c>
       <c r="H14">
-        <v>8.4257328369436481E-3</v>
+        <v>1.96666388804945E-3</v>
       </c>
       <c r="I14">
-        <v>1.7399007885061799E-2</v>
+        <v>6.9302110696953158E-3</v>
       </c>
       <c r="J14">
-        <v>0.1137819065548888</v>
+        <v>6.3571265358142073E-2</v>
       </c>
       <c r="K14">
-        <v>0.494564101150052</v>
+        <v>0.45098939175662722</v>
       </c>
       <c r="L14">
-        <v>0.85188453288286103</v>
+        <v>0.86005620912440672</v>
       </c>
       <c r="M14">
-        <v>0.66775366339706221</v>
+        <v>0.64459633507618852</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.85301990120189919</v>
+        <v>0.90810637113281167</v>
       </c>
       <c r="P14">
-        <v>0.75652322503389025</v>
+        <v>0.8158682502408855</v>
       </c>
       <c r="Q14">
-        <v>0.70926292880746544</v>
+        <v>0.72725052323235739</v>
       </c>
       <c r="R14">
-        <v>0.46036913567054571</v>
+        <v>0.52526182472638117</v>
       </c>
       <c r="S14">
-        <v>0.39054230357965081</v>
+        <v>0.41796212138634498</v>
       </c>
       <c r="T14">
-        <v>0.95076320194538988</v>
+        <v>0.95370467306909257</v>
       </c>
       <c r="U14">
-        <v>0.46208012955642858</v>
+        <v>0.5280356137918597</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1281,64 +1281,64 @@
         <v>1.4E-2</v>
       </c>
       <c r="B15">
-        <v>9.0331247575395804E-2</v>
+        <v>5.8725598708667261E-2</v>
       </c>
       <c r="C15">
-        <v>0.1160660869818724</v>
+        <v>7.3339718113579311E-2</v>
       </c>
       <c r="D15">
-        <v>4.9460044591031739E-2</v>
+        <v>1.1399934405371549E-2</v>
       </c>
       <c r="E15">
-        <v>3.5531451920422757E-2</v>
+        <v>1.1399934405371549E-2</v>
       </c>
       <c r="F15">
-        <v>2.0076443398723569E-4</v>
+        <v>4.215944489942315E-5</v>
       </c>
       <c r="G15">
-        <v>4.3256281769382397E-5</v>
+        <v>1.3379083937038189E-5</v>
       </c>
       <c r="H15">
-        <v>5.5001763717756743E-3</v>
+        <v>1.521589398936879E-3</v>
       </c>
       <c r="I15">
-        <v>1.1549034737121249E-2</v>
+        <v>5.4062420552378069E-3</v>
       </c>
       <c r="J15">
-        <v>8.1825494792794357E-2</v>
+        <v>5.1520131958462181E-2</v>
       </c>
       <c r="K15">
-        <v>0.39113710923514527</v>
+        <v>0.39011637112548581</v>
       </c>
       <c r="L15">
-        <v>0.71255926463925034</v>
+        <v>0.77158241276950112</v>
       </c>
       <c r="M15">
-        <v>0.54508855507039333</v>
+        <v>0.56875982982967455</v>
       </c>
       <c r="N15">
-        <v>0.85301990120189919</v>
+        <v>0.90810637113281167</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.90258503513519606</v>
+        <v>0.90838896059857299</v>
       </c>
       <c r="Q15">
-        <v>0.85403071439392153</v>
+        <v>0.8182299207391357</v>
       </c>
       <c r="R15">
-        <v>0.5846186592120578</v>
+        <v>0.60736661276530857</v>
       </c>
       <c r="S15">
-        <v>0.50530520630315512</v>
+        <v>0.49249015013535319</v>
       </c>
       <c r="T15">
-        <v>0.80742757728744574</v>
+        <v>0.86333744070457685</v>
       </c>
       <c r="U15">
-        <v>0.58601493909781843</v>
+        <v>0.60971725597893589</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1346,64 +1346,64 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>6.7855279569694532E-2</v>
+        <v>4.2805188654401027E-2</v>
       </c>
       <c r="C16">
-        <v>8.94438059466139E-2</v>
+        <v>5.4618717652387128E-2</v>
       </c>
       <c r="D16">
-        <v>3.6571117821735888E-2</v>
+        <v>7.6723617187206793E-3</v>
       </c>
       <c r="E16">
-        <v>2.5765114864545011E-2</v>
+        <v>7.6723617187206793E-3</v>
       </c>
       <c r="F16">
-        <v>1.186779945453961E-4</v>
+        <v>2.2367319283646791E-5</v>
       </c>
       <c r="G16">
-        <v>2.4302691585251349E-5</v>
+        <v>6.7551350722156852E-6</v>
       </c>
       <c r="H16">
-        <v>3.6963085248551161E-3</v>
+        <v>9.3847022759084911E-4</v>
       </c>
       <c r="I16">
-        <v>7.9462110493272418E-3</v>
+        <v>3.491233402360237E-3</v>
       </c>
       <c r="J16">
-        <v>6.196434732218626E-2</v>
+        <v>3.7691415818466432E-2</v>
       </c>
       <c r="K16">
-        <v>0.32519925137694689</v>
+        <v>0.32603854022914103</v>
       </c>
       <c r="L16">
-        <v>0.62187130858851392</v>
+        <v>0.68181744768429997</v>
       </c>
       <c r="M16">
-        <v>0.46603869116841518</v>
+        <v>0.49047144482316007</v>
       </c>
       <c r="N16">
-        <v>0.75652322503389025</v>
+        <v>0.8158682502408855</v>
       </c>
       <c r="O16">
-        <v>0.90258503513519606</v>
+        <v>0.90838896059857299</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.95089557344452169</v>
+        <v>0.90772131884594676</v>
       </c>
       <c r="R16">
-        <v>0.66940623748943584</v>
+        <v>0.68685633996183149</v>
       </c>
       <c r="S16">
-        <v>0.58414070988138289</v>
+        <v>0.56395199568134502</v>
       </c>
       <c r="T16">
-        <v>0.71356077868084644</v>
+        <v>0.77232174842345713</v>
       </c>
       <c r="U16">
-        <v>0.67057168658503796</v>
+        <v>0.6888294487101414</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,64 +1411,64 @@
         <v>1.6E-2</v>
       </c>
       <c r="B17">
-        <v>5.8411772828864707E-2</v>
+        <v>3.2326454903101147E-2</v>
       </c>
       <c r="C17">
-        <v>7.803968465567189E-2</v>
+        <v>4.1910802559753768E-2</v>
       </c>
       <c r="D17">
-        <v>3.124911824440452E-2</v>
+        <v>5.5012677264768524E-3</v>
       </c>
       <c r="E17">
-        <v>2.179631324658866E-2</v>
+        <v>5.5012677264768524E-3</v>
       </c>
       <c r="F17">
-        <v>9.0520035573864933E-5</v>
+        <v>1.4027971236048751E-5</v>
       </c>
       <c r="G17">
-        <v>1.8064885439932239E-5</v>
+        <v>4.1334831180138696E-6</v>
       </c>
       <c r="H17">
-        <v>3.0092128902824739E-3</v>
+        <v>6.3855934812120485E-4</v>
       </c>
       <c r="I17">
-        <v>6.5452329554087363E-3</v>
+        <v>2.4388312930080499E-3</v>
       </c>
       <c r="J17">
-        <v>5.3589056028353059E-2</v>
+        <v>2.8571910642638872E-2</v>
       </c>
       <c r="K17">
-        <v>0.29492356991622398</v>
+        <v>0.27314185076717012</v>
       </c>
       <c r="L17">
-        <v>0.57821540168214747</v>
+        <v>0.59866664072662712</v>
       </c>
       <c r="M17">
-        <v>0.4288071206906412</v>
+        <v>0.42183719494854421</v>
       </c>
       <c r="N17">
-        <v>0.70926292880746544</v>
+        <v>0.72725052323235739</v>
       </c>
       <c r="O17">
-        <v>0.85403071439392153</v>
+        <v>0.8182299207391357</v>
       </c>
       <c r="P17">
-        <v>0.95089557344452169</v>
+        <v>0.90772131884594676</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.71379917551619276</v>
+        <v>0.77366121785674857</v>
       </c>
       <c r="S17">
-        <v>0.62584476445853521</v>
+        <v>0.64477445409495004</v>
       </c>
       <c r="T17">
-        <v>0.66782499615689028</v>
+        <v>0.68585562302193903</v>
       </c>
       <c r="U17">
-        <v>0.71482881249140395</v>
+        <v>0.77512215024870212</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1476,61 +1476,61 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>2.4795589057956129E-2</v>
+        <v>1.561549181022949E-2</v>
       </c>
       <c r="C18">
-        <v>3.5397030398724903E-2</v>
+        <v>2.105317672310832E-2</v>
       </c>
       <c r="D18">
-        <v>1.2932287502920581E-2</v>
+        <v>2.3642504346741621E-3</v>
       </c>
       <c r="E18">
-        <v>8.6263517573013093E-3</v>
+        <v>2.3642504346741621E-3</v>
       </c>
       <c r="F18">
-        <v>2.4126111726886029E-5</v>
+        <v>4.4910041807581574E-6</v>
       </c>
       <c r="G18">
-        <v>4.4252534498675547E-6</v>
+        <v>1.2552925186101149E-6</v>
       </c>
       <c r="H18">
-        <v>1.019626355979391E-3</v>
+        <v>2.4425567586729981E-4</v>
       </c>
       <c r="I18">
-        <v>2.3175969347782538E-3</v>
+        <v>9.8736718603113023E-4</v>
       </c>
       <c r="J18">
-        <v>2.3373100249184601E-2</v>
+        <v>1.39610380209039E-2</v>
       </c>
       <c r="K18">
-        <v>0.16084004281461639</v>
+        <v>0.16926124012448551</v>
       </c>
       <c r="L18">
-        <v>0.35896228351318438</v>
+        <v>0.41610734126267951</v>
       </c>
       <c r="M18">
-        <v>0.25225724840417219</v>
+        <v>0.27889585268687989</v>
       </c>
       <c r="N18">
-        <v>0.46036913567054571</v>
+        <v>0.52526182472638117</v>
       </c>
       <c r="O18">
-        <v>0.5846186592120578</v>
+        <v>0.60736661276530857</v>
       </c>
       <c r="P18">
-        <v>0.66940623748943584</v>
+        <v>0.68685633996183149</v>
       </c>
       <c r="Q18">
-        <v>0.71379917551619276</v>
+        <v>0.77366121785674857</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.90383614357647046</v>
+        <v>0.86353549426782095</v>
       </c>
       <c r="T18">
-        <v>0.43001558078648022</v>
+        <v>0.49089156058177219</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -1541,64 +1541,64 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>1.8240189099866681E-2</v>
+        <v>9.3897838694391254E-3</v>
       </c>
       <c r="C19">
-        <v>2.665271856712291E-2</v>
+        <v>1.3038770744956201E-2</v>
       </c>
       <c r="D19">
-        <v>9.452553789162231E-3</v>
+        <v>1.3059302068646251E-3</v>
       </c>
       <c r="E19">
-        <v>6.211177648318641E-3</v>
+        <v>1.3059302068646251E-3</v>
       </c>
       <c r="F19">
-        <v>1.525810582646895E-5</v>
+        <v>1.958963217727379E-6</v>
       </c>
       <c r="G19">
-        <v>2.72199887909162E-6</v>
+        <v>5.226199885338717E-7</v>
       </c>
       <c r="H19">
-        <v>6.9803207213029307E-4</v>
+        <v>1.234234968145232E-4</v>
       </c>
       <c r="I19">
-        <v>1.6087128979890581E-3</v>
+        <v>5.2091529866033501E-4</v>
       </c>
       <c r="J19">
-        <v>1.7377472070356122E-2</v>
+        <v>8.4798185975662344E-3</v>
       </c>
       <c r="K19">
-        <v>0.12869217956813259</v>
+        <v>0.1214680161437713</v>
       </c>
       <c r="L19">
-        <v>0.29999526262891868</v>
+        <v>0.32257979315458701</v>
       </c>
       <c r="M19">
-        <v>0.20712549491502871</v>
+        <v>0.20921697637434269</v>
       </c>
       <c r="N19">
-        <v>0.39054230357965081</v>
+        <v>0.41796212138634498</v>
       </c>
       <c r="O19">
-        <v>0.50530520630315512</v>
+        <v>0.49249015013535319</v>
       </c>
       <c r="P19">
-        <v>0.58414070988138289</v>
+        <v>0.56395199568134502</v>
       </c>
       <c r="Q19">
-        <v>0.62584476445853521</v>
+        <v>0.64477445409495004</v>
       </c>
       <c r="R19">
-        <v>0.90383614357647046</v>
+        <v>0.86353549426782095</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.36396519578977232</v>
+        <v>0.38834428275983701</v>
       </c>
       <c r="U19">
-        <v>0.90418783871336972</v>
+        <v>0.86442500875943473</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1606,64 +1606,64 @@
         <v>1.9E-2</v>
       </c>
       <c r="B20">
-        <v>0.14875485594468579</v>
+        <v>8.4521129404446907E-2</v>
       </c>
       <c r="C20">
-        <v>0.18328355758363529</v>
+        <v>0.1034807091775715</v>
       </c>
       <c r="D20">
-        <v>8.3964186553693324E-2</v>
+        <v>1.7594707149937491E-2</v>
       </c>
       <c r="E20">
-        <v>6.232842529505829E-2</v>
+        <v>1.7594707149937491E-2</v>
       </c>
       <c r="F20">
-        <v>4.9190700046895905E-4</v>
+        <v>7.687601745576459E-5</v>
       </c>
       <c r="G20">
-        <v>1.1463210683894819E-4</v>
+        <v>2.509184316665607E-5</v>
       </c>
       <c r="H20">
-        <v>1.097333764947989E-2</v>
+        <v>2.513412996211785E-3</v>
       </c>
       <c r="I20">
-        <v>2.213286621764338E-2</v>
+        <v>8.6253361956440417E-3</v>
       </c>
       <c r="J20">
-        <v>0.133247708866987</v>
+        <v>7.3922747029432884E-2</v>
       </c>
       <c r="K20">
-        <v>0.54005710923901795</v>
+        <v>0.4890879697391689</v>
       </c>
       <c r="L20">
-        <v>0.90225991205881417</v>
+        <v>0.90699730601210971</v>
       </c>
       <c r="M20">
-        <v>0.71650370421170262</v>
+        <v>0.68820211206651494</v>
       </c>
       <c r="N20">
-        <v>0.95076320194538988</v>
+        <v>0.95370467306909257</v>
       </c>
       <c r="O20">
-        <v>0.80742757728744574</v>
+        <v>0.86333744070457685</v>
       </c>
       <c r="P20">
-        <v>0.71356077868084644</v>
+        <v>0.77232174842345713</v>
       </c>
       <c r="Q20">
-        <v>0.66782499615689028</v>
+        <v>0.68585562302193903</v>
       </c>
       <c r="R20">
-        <v>0.43001558078648022</v>
+        <v>0.49089156058177219</v>
       </c>
       <c r="S20">
-        <v>0.36396519578977232</v>
+        <v>0.38834428275983701</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.43172899352062027</v>
+        <v>0.49376120276942131</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,61 +1671,61 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>2.536567163582899E-2</v>
+        <v>1.635352154649241E-2</v>
       </c>
       <c r="C21">
-        <v>3.6070525869230187E-2</v>
+        <v>2.1926365301233271E-2</v>
       </c>
       <c r="D21">
-        <v>1.3254445366768499E-2</v>
+        <v>2.5266497845727672E-3</v>
       </c>
       <c r="E21">
-        <v>8.8682922237118423E-3</v>
+        <v>2.5266497845727672E-3</v>
       </c>
       <c r="F21">
-        <v>2.5790677422596061E-5</v>
+        <v>5.1711251672476621E-6</v>
       </c>
       <c r="G21">
-        <v>4.787450446913793E-6</v>
+        <v>1.4715205800436079E-6</v>
       </c>
       <c r="H21">
-        <v>1.061628940392165E-3</v>
+        <v>2.6763544586691729E-4</v>
       </c>
       <c r="I21">
-        <v>2.403408895791334E-3</v>
+        <v>1.0677520633013519E-3</v>
       </c>
       <c r="J21">
-        <v>2.387403260611156E-2</v>
+        <v>1.4600042103764879E-2</v>
       </c>
       <c r="K21">
-        <v>0.16241258450532531</v>
+        <v>0.17208367343407191</v>
       </c>
       <c r="L21">
-        <v>0.36077492369970487</v>
+        <v>0.41926748512793027</v>
       </c>
       <c r="M21">
-        <v>0.25399587085271791</v>
+        <v>0.28203906256404571</v>
       </c>
       <c r="N21">
-        <v>0.46208012955642858</v>
+        <v>0.5280356137918597</v>
       </c>
       <c r="O21">
-        <v>0.58601493909781843</v>
+        <v>0.60971725597893589</v>
       </c>
       <c r="P21">
-        <v>0.67057168658503796</v>
+        <v>0.6888294487101414</v>
       </c>
       <c r="Q21">
-        <v>0.71482881249140395</v>
+        <v>0.77512215024870212</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0.90418783871336972</v>
+        <v>0.86442500875943473</v>
       </c>
       <c r="T21">
-        <v>0.43172899352062027</v>
+        <v>0.49376120276942131</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1733,12 +1733,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:U21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
